--- a/Book1(AutoRecovered).xlsx
+++ b/Book1(AutoRecovered).xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TheVeganElectrolance\Documents\Electrolance Company\Projects\04042018-JAAVIN-VMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:540008_{A7B2CC0C-24FA-4137-9125-D01F55334075}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4CBCAA4E-63C7-4AC8-84D3-70EB9649206E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1(AutoRecovered)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,15 +922,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
@@ -943,6 +945,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="str">
+        <f>"RELAY"&amp;ROW()&amp;"_OFF"</f>
+        <v>RELAY1_OFF</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"RELAY"&amp;ROW()&amp;"_OFF"</f>
+        <v>RELAY1_OFF</v>
+      </c>
       <c r="I1" t="str">
         <f>"void RELAY"&amp;ROW()&amp;"_ON(void);"</f>
         <v>void RELAY1_ON(void);</v>
@@ -956,12 +966,20 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"RELAY"&amp;ROW()&amp;"_OFF"</f>
+        <v>RELAY2_OFF</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE(H1&amp;",",G2)</f>
+        <v>RELAY1_OFF,RELAY2_OFF</v>
+      </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I9" si="0">"void RELAY"&amp;ROW()&amp;"_ON(void);"</f>
+        <f t="shared" ref="I2:I9" si="1">"void RELAY"&amp;ROW()&amp;"_ON(void);"</f>
         <v>void RELAY2_ON(void);</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J8" si="1">"void RELAY"&amp;ROW()&amp;"_OFF(void);"</f>
+        <f t="shared" ref="J2:J8" si="2">"void RELAY"&amp;ROW()&amp;"_OFF(void);"</f>
         <v>void RELAY2_OFF(void);</v>
       </c>
       <c r="K2" t="s">
@@ -975,12 +993,20 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY3_OFF</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H8" si="3">CONCATENATE(H2&amp;",",G3)</f>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF</v>
+      </c>
       <c r="I3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY3_ON(void);</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY3_OFF(void);</v>
       </c>
       <c r="K3" t="s">
@@ -995,19 +1021,27 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY4_OFF</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF,RELAY4_OFF</v>
+      </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY4_ON(void);</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY4_OFF(void);</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L9" si="2">CONCATENATE(L3&amp;",",K4)</f>
+        <f t="shared" ref="L4:L9" si="4">CONCATENATE(L3&amp;",",K4)</f>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON</v>
       </c>
     </row>
@@ -1015,19 +1049,27 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY5_OFF</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF,RELAY4_OFF,RELAY5_OFF</v>
+      </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY5_ON(void);</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY5_OFF(void);</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON,RELAY4_ON</v>
       </c>
     </row>
@@ -1035,19 +1077,27 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY6_OFF</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF,RELAY4_OFF,RELAY5_OFF,RELAY6_OFF</v>
+      </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY6_ON(void);</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY6_OFF(void);</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON,RELAY4_ON,RELAY5_ON</v>
       </c>
     </row>
@@ -1055,19 +1105,27 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY7_OFF</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF,RELAY4_OFF,RELAY5_OFF,RELAY6_OFF,RELAY7_OFF</v>
+      </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY7_ON(void);</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY7_OFF(void);</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON,RELAY4_ON,RELAY5_ON,RELAY6_ON</v>
       </c>
     </row>
@@ -1075,19 +1133,27 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>RELAY8_OFF</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>RELAY1_OFF,RELAY2_OFF,RELAY3_OFF,RELAY4_OFF,RELAY5_OFF,RELAY6_OFF,RELAY7_OFF,RELAY8_OFF</v>
+      </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY8_ON(void);</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>void RELAY8_OFF(void);</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON,RELAY4_ON,RELAY5_ON,RELAY6_ON,RELAY7_ON</v>
       </c>
     </row>
@@ -1096,14 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>void RELAY9_ON(void);</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(L8&amp;",",K9)</f>
         <v>RELAY1_ON,RELAY2_ON,RELAY3_ON,RELAY4_ON,RELAY5_ON,RELAY6_ON,RELAY7_ON,RELAY8_ON</v>
       </c>
     </row>
